--- a/python_learning/torihiki.xlsx
+++ b/python_learning/torihiki.xlsx
@@ -1,111 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E33179-C8A2-408A-ADE5-E33F2CB7C20C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{994CC68E-CFE2-4398-874D-DE3F4CDA48B8}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="4000" windowWidth="14380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="集計" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="集計1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="179021" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>取引先</t>
-  </si>
-  <si>
-    <t>担当者</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>注文番号</t>
-  </si>
-  <si>
-    <t>取引金額</t>
-  </si>
-  <si>
-    <t>北海道商事</t>
-  </si>
-  <si>
-    <t>山田</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>青森商会</t>
-  </si>
-  <si>
-    <t>天野</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>武田INTナショナル</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt formatCode="m/d;@" numFmtId="164"/>
+    <numFmt formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,55 +56,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="32" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+      <numFmt formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="32"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="m/d;@"/>
+      <numFmt formatCode="m/d;@" numFmtId="179"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28812F06-D028-44DD-9A6E-E914B718710F}" name="テーブル1" displayName="テーブル1" ref="A2:F8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="テーブル1" headerRowCount="1" id="1" name="テーブル1" ref="A2:F8" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{85B727D7-BDA0-45DD-A300-34ED50D7B432}" name="No"/>
-    <tableColumn id="2" xr3:uid="{9A7ACF41-EDF0-4E4D-8A9B-F5E03770EB7E}" name="取引先"/>
-    <tableColumn id="3" xr3:uid="{1124A5AA-5948-4438-B511-40CD162C7561}" name="担当者"/>
-    <tableColumn id="4" xr3:uid="{2C3F223F-6727-484E-BF8D-77F342C15FC9}" name="日付" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{997AEE93-80F0-411D-8944-DB1F2F0CC7D7}" name="注文番号"/>
-    <tableColumn id="6" xr3:uid="{C06D7402-31DF-4150-B970-6DC8525C26B6}" name="取引金額" dataDxfId="0"/>
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="取引先"/>
+    <tableColumn id="3" name="担当者"/>
+    <tableColumn dataDxfId="1" id="4" name="日付"/>
+    <tableColumn id="5" name="注文番号"/>
+    <tableColumn dataDxfId="0" id="6" name="取引金額"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -469,167 +403,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED10907-0923-4166-96C7-D6B20AB01632}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="7"/>
+    <col customWidth="1" max="2" min="2" style="3" width="18.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="9.9140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>取引先</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>担当者</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>注文番号</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>取引金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>北海道商事</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>41920</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>-560000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>青森商会</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>天野</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>41920</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>武田INTナショナル</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>41928</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>北海道商事</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>41934</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-460000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>青森商会</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>天野</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>41935</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41920</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-560000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>41920</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41928</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
-        <v>234000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>41934</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-460000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>武田INTナショナル</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>41935</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>410000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>41935</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>取引先</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>取引金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>北海道商事</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-1020000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>青森商会</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>武田INTナショナル</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1434000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>取引先</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>取引金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>北海道商事</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1020000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>青森商会</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>武田INTナショナル</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1434000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>